--- a/Base de donnée projet d'etudes.xlsx
+++ b/Base de donnée projet d'etudes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imara\Downloads\TP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imara\Downloads\TP\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE61D340-7B2F-4B08-8D73-EFD7A275D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D946933-4577-4853-A83F-90EF3AB6ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="19" xr2:uid="{85390056-6CA2-44E8-AFD2-A209D1AFC9D5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85390056-6CA2-44E8-AFD2-A209D1AFC9D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -2307,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB77EA9-437B-4ED4-B8AA-F9FCB95BF547}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3650,7 +3650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF04E534-C2EA-4807-B8CF-4BBE34FD88BD}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
